--- a/Airwindows 插件备注.xlsx
+++ b/Airwindows 插件备注.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="638">
   <si>
     <t>插件</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>评注（如无说明，默认翻译自 Tiki Horea）</t>
+  </si>
+  <si>
+    <t>发布日期</t>
   </si>
   <si>
     <t>Acceleration</t>
@@ -1902,6 +1905,18 @@
     <t>Wider is Airwindows stereo space shaping.</t>
   </si>
   <si>
+    <t>Apicolypse</t>
+  </si>
+  <si>
+    <t>API 风格染色器</t>
+  </si>
+  <si>
+    <t>Apicolypse is a re-release of my old API-style color adder, exactly as it was.</t>
+  </si>
+  <si>
+    <t>Ryusa：插件名捏他自“启示录”（Apocalypse）</t>
+  </si>
+  <si>
     <t>项目</t>
   </si>
   <si>
@@ -1917,7 +1932,7 @@
     <t>修改日期</t>
   </si>
   <si>
-    <t>2020 年 02 月 13 日</t>
+    <t>2020 年 02 月 24 日</t>
   </si>
   <si>
     <t>最新插件</t>
@@ -1952,8 +1967,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1994,28 +2009,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2036,11 +2044,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2053,7 +2076,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2062,6 +2085,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2083,14 +2114,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -2098,14 +2121,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2135,7 +2150,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2147,13 +2180,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE3F3"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2165,19 +2252,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2189,97 +2288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDAE3F3"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2297,19 +2306,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2329,11 +2344,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2348,30 +2408,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2397,32 +2433,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2431,89 +2446,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2522,62 +2537,62 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2599,11 +2614,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="30" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="30" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2768,12 +2786,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G181" totalsRowShown="0">
-  <autoFilter ref="A1:G181"/>
-  <sortState ref="A2:G181">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H182" totalsRowShown="0">
+  <autoFilter ref="A1:H182"/>
+  <sortState ref="A1:H182">
     <sortCondition ref="A2:A184"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="8">
     <tableColumn id="1" name="插件" dataDxfId="0"/>
     <tableColumn id="2" name="主分类" dataDxfId="1"/>
     <tableColumn id="3" name="子分类" dataDxfId="2"/>
@@ -2781,6 +2799,7 @@
     <tableColumn id="5" name="关键词/描述" dataDxfId="4"/>
     <tableColumn id="6" name="介绍" dataDxfId="5"/>
     <tableColumn id="7" name="评注（如无说明，默认翻译自 Tiki Horea）" dataDxfId="6"/>
+    <tableColumn id="8" name="发布日期"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3055,15 +3074,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G182" sqref="G182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -3075,7 +3094,7 @@
     <col min="8" max="8" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3097,3398 +3116,3425 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="28.5" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" ht="28.5" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" ht="28.5" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" ht="28.5" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="F12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" ht="28.5" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="7"/>
+      <c r="A15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="F15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:7">
       <c r="A17" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" ht="28.5" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" ht="142.5" spans="1:7">
       <c r="A22" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" ht="28.5" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G24" s="5"/>
     </row>
     <row r="25" ht="28.5" spans="1:7">
       <c r="A25" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" ht="28.5" spans="1:7">
       <c r="A28" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" ht="28.5" spans="1:7">
       <c r="A30" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G32" s="5"/>
     </row>
     <row r="33" ht="28.5" spans="1:7">
       <c r="A33" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="B34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="F34" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G36" s="5"/>
     </row>
     <row r="37" ht="28.5" spans="1:7">
       <c r="A37" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G37" s="5"/>
     </row>
     <row r="38" ht="242.25" spans="1:7">
       <c r="A38" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G39" s="5"/>
     </row>
     <row r="40" ht="28.5" spans="1:7">
       <c r="A40" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G42" s="5"/>
     </row>
     <row r="43" ht="28.5" spans="1:7">
       <c r="A43" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G43" s="5"/>
     </row>
     <row r="44" ht="27" spans="1:7">
       <c r="A44" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G44" s="8" t="s">
         <v>167</v>
       </c>
+      <c r="G44" s="7" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="45" ht="28.5" spans="1:7">
-      <c r="A45" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="A45" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="B45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="D45" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="E45" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G45" s="7"/>
+      <c r="F45" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G46" s="5"/>
     </row>
     <row r="47" ht="57" spans="1:7">
       <c r="A47" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G52" s="5"/>
     </row>
     <row r="53" ht="71.25" spans="1:7">
       <c r="A53" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" ht="28.5" spans="1:7">
       <c r="A54" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" ht="28.5" spans="1:7">
       <c r="A57" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" ht="28.5" spans="1:7">
       <c r="A58" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G58" s="5"/>
     </row>
     <row r="59" ht="28.5" spans="1:7">
       <c r="A59" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G61" s="5"/>
     </row>
     <row r="62" ht="28.5" spans="1:7">
       <c r="A62" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="5"/>
       <c r="E63" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G63" s="5"/>
     </row>
     <row r="64" ht="28.5" spans="1:7">
       <c r="A64" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G66" s="5"/>
     </row>
     <row r="67" ht="28.5" spans="1:7">
       <c r="A67" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" ht="28.5" spans="1:7">
       <c r="A68" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="5"/>
       <c r="E68" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="7" t="s">
+      <c r="A72" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7" t="s">
+      <c r="B72" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G72" s="7"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G72" s="5"/>
     </row>
     <row r="73" ht="28.5" spans="1:7">
       <c r="A73" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G73" s="5"/>
     </row>
     <row r="74" ht="28.5" spans="1:7">
       <c r="A74" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="5"/>
       <c r="E74" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G74" s="5"/>
     </row>
     <row r="75" ht="28.5" spans="1:7">
-      <c r="A75" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7" t="s">
+      <c r="A75" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="B75" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G75" s="7"/>
+      <c r="F75" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G75" s="5"/>
     </row>
     <row r="76" ht="28.5" spans="1:7">
       <c r="A76" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G76" s="5"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="5"/>
       <c r="E79" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80" ht="28.5" spans="1:7">
-      <c r="A80" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7" t="s">
+      <c r="A80" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="B80" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="G80" s="7"/>
+      <c r="F80" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G80" s="5"/>
     </row>
     <row r="81" ht="28.5" spans="1:7">
       <c r="A81" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G81" s="5"/>
     </row>
     <row r="82" ht="28.5" spans="1:7">
       <c r="A82" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G83" s="5"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G84" s="5"/>
     </row>
     <row r="85" ht="28.5" spans="1:7">
       <c r="A85" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" ht="28.5" spans="1:7">
       <c r="A87" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G87" s="5"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G88" s="5"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G89" s="5"/>
     </row>
     <row r="90" ht="28.5" spans="1:7">
       <c r="A90" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G90" s="5"/>
     </row>
     <row r="91" ht="28.5" spans="1:7">
       <c r="A91" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G91" s="5"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G92" s="5"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" ht="28.5" spans="1:7">
       <c r="A94" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G94" s="5"/>
     </row>
     <row r="95" ht="199.5" spans="1:7">
       <c r="A95" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="96" ht="28.5" spans="1:7">
       <c r="A96" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G96" s="5"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G99" s="5"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7" t="s">
+      <c r="A103" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="B103" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="G103" s="7"/>
+      <c r="F103" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G103" s="5"/>
     </row>
     <row r="104" ht="28.5" spans="1:7">
       <c r="A104" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G104" s="5"/>
     </row>
     <row r="105" ht="28.5" spans="1:7">
       <c r="A105" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G105" s="5"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G106" s="5"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G107" s="5"/>
     </row>
     <row r="108" ht="28.5" spans="1:7">
       <c r="A108" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="110" ht="71.25" spans="1:7">
       <c r="A110" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="111" ht="42.75" spans="1:7">
       <c r="A111" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G113" s="5"/>
     </row>
     <row r="114" ht="28.5" spans="1:7">
       <c r="A114" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115" ht="28.5" spans="1:7">
       <c r="A115" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G116" s="5"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G117" s="5"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7" t="s">
+      <c r="A118" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="B118" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="G118" s="7"/>
+      <c r="F118" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G119" s="5"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G120" s="5"/>
     </row>
     <row r="121" ht="99.75" spans="1:7">
       <c r="A121" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G122" s="5"/>
     </row>
     <row r="123" ht="28.5" spans="1:7">
       <c r="A123" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7" t="s">
+      <c r="A124" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="G124" s="7"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="G124" s="5"/>
     </row>
     <row r="125" ht="42.75" spans="1:7">
       <c r="A125" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G126" s="5"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G127" s="5"/>
     </row>
     <row r="128" ht="28.5" spans="1:7">
       <c r="A128" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G128" s="5"/>
     </row>
     <row r="129" ht="28.5" spans="1:7">
       <c r="A129" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G129" s="5"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G130" s="5"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G131" s="5"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="133" ht="57" spans="1:7">
       <c r="A133" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G133" s="5"/>
     </row>
     <row r="134" ht="28.5" spans="1:7">
       <c r="A134" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G135" s="5"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G136" s="5"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G137" s="5"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G138" s="5"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G139" s="5"/>
     </row>
     <row r="140" ht="28.5" spans="1:7">
       <c r="A140" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G140" s="5"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="5"/>
       <c r="E141" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="142" ht="57" spans="1:7">
       <c r="A142" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G143" s="5"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G145" s="5"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G146" s="5"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G149" s="5"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7" t="s">
+      <c r="A150" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="G150" s="7"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="G150" s="5"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G151" s="5"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G152" s="5"/>
     </row>
     <row r="153" ht="28.5" spans="1:7">
       <c r="A153" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G153" s="5"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G154" s="5"/>
     </row>
     <row r="155" ht="28.5" spans="1:7">
       <c r="A155" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="156" ht="42.75" spans="1:7">
       <c r="A156" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="157" ht="42.75" spans="1:7">
       <c r="A157" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7" t="s">
+      <c r="A158" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="F158" s="7" t="s">
+      <c r="B158" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="G158" s="7"/>
+      <c r="F158" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="G158" s="5"/>
     </row>
     <row r="159" ht="28.5" spans="1:7">
       <c r="A159" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G159" s="5"/>
     </row>
     <row r="160" ht="28.5" spans="1:7">
       <c r="A160" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G160" s="5"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G161" s="5"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G162" s="5"/>
     </row>
     <row r="163" ht="28.5" spans="1:7">
       <c r="A163" s="5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G163" s="5"/>
     </row>
     <row r="164" ht="28.5" spans="1:7">
-      <c r="A164" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7" t="s">
+      <c r="A164" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="F164" s="7" t="s">
+      <c r="B164" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="G164" s="7"/>
+      <c r="F164" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="G164" s="5"/>
     </row>
     <row r="165" ht="28.5" spans="1:7">
       <c r="A165" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G165" s="5"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E166" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="G166" s="5"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="F166" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="G166" s="5"/>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="B167" s="7"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="E167" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="F167" s="7" t="s">
+      <c r="E167" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="G167" s="7"/>
+      <c r="F167" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="G167" s="5"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="5" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="170" ht="28.5" spans="1:7">
       <c r="A170" s="5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="5" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G171" s="5"/>
     </row>
     <row r="172" ht="28.5" spans="1:7">
       <c r="A172" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="173" ht="28.5" spans="1:7">
       <c r="A173" s="6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="174" ht="28.5" spans="1:7">
       <c r="A174" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G174" s="5" t="s">
         <v>591</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="F174" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="G174" s="5" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="175" ht="28.5" spans="1:7">
       <c r="A175" s="6" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="5"/>
       <c r="E175" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G175" s="5"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="6" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G176" s="5"/>
     </row>
     <row r="177" ht="28.5" spans="1:7">
       <c r="A177" s="5" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G177" s="5"/>
     </row>
     <row r="178" ht="28.5" spans="1:7">
       <c r="A178" s="5" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G178" s="5"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="5" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G180" s="5"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="5" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G181" s="5"/>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D182" s="8"/>
+      <c r="E182" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="G182" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="H182" s="9">
+        <v>43885</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6511,7 +6557,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -6521,58 +6567,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>619</v>
+        <v>623</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>621</v>
+        <v>625</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>623</v>
+        <v>627</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>372</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6581,10 +6627,10 @@
     </row>
     <row r="9" ht="71.25" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>

--- a/Airwindows 插件备注.xlsx
+++ b/Airwindows 插件备注.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22155" windowHeight="13350" tabRatio="500"/>
+    <workbookView windowWidth="22155" windowHeight="13350" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="插件清单" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="643">
   <si>
     <t>插件</t>
   </si>
@@ -1917,6 +1917,21 @@
     <t>Ryusa：插件名捏他自“启示录”（Apocalypse）</t>
   </si>
   <si>
+    <t>2020/2/24</t>
+  </si>
+  <si>
+    <t>DigitalBlack</t>
+  </si>
+  <si>
+    <t>顿奏门限</t>
+  </si>
+  <si>
+    <t>DigitalBlack is a quick, staccato gate.</t>
+  </si>
+  <si>
+    <t>2020/3/1</t>
+  </si>
+  <si>
     <t>项目</t>
   </si>
   <si>
@@ -1932,7 +1947,7 @@
     <t>修改日期</t>
   </si>
   <si>
-    <t>2020 年 02 月 24 日</t>
+    <t>2020 年 03 月 03 日</t>
   </si>
   <si>
     <t>最新插件</t>
@@ -1967,10 +1982,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2009,6 +2024,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2017,13 +2047,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2045,25 +2068,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2074,25 +2083,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2121,8 +2120,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2130,6 +2130,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2150,7 +2165,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2162,25 +2189,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2198,19 +2231,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2222,37 +2249,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2270,55 +2297,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2331,6 +2316,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2398,6 +2413,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2427,15 +2451,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2446,153 +2461,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2617,11 +2632,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="30" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2679,7 +2703,10 @@
     <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <alignment vertical="center" wrapText="1"/>
+    </dxf>
     <dxf>
       <alignment vertical="center" wrapText="1"/>
     </dxf>
@@ -2786,9 +2813,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H182" totalsRowShown="0">
-  <autoFilter ref="A1:H182"/>
-  <sortState ref="A1:H182">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H183" totalsRowShown="0">
+  <autoFilter ref="A1:H183"/>
+  <sortState ref="A1:H183">
     <sortCondition ref="A2:A184"/>
   </sortState>
   <tableColumns count="8">
@@ -2799,7 +2826,7 @@
     <tableColumn id="5" name="关键词/描述" dataDxfId="4"/>
     <tableColumn id="6" name="介绍" dataDxfId="5"/>
     <tableColumn id="7" name="评注（如无说明，默认翻译自 Tiki Horea）" dataDxfId="6"/>
-    <tableColumn id="8" name="发布日期"/>
+    <tableColumn id="8" name="发布日期" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2809,8 +2836,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:B9" totalsRowShown="0">
   <autoFilter ref="A1:B9"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="项目" dataDxfId="7"/>
-    <tableColumn id="2" name="值" dataDxfId="8"/>
+    <tableColumn id="1" name="项目" dataDxfId="8"/>
+    <tableColumn id="2" name="值" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3074,12 +3101,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G182" sqref="G182"/>
+      <selection pane="bottomLeft" activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -6513,27 +6540,49 @@
       <c r="G181" s="5"/>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="8" t="s">
+      <c r="A182" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C182" s="8" t="s">
+      <c r="C182" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8" t="s">
+      <c r="D182" s="1"/>
+      <c r="E182" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="F182" s="8" t="s">
+      <c r="F182" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="G182" s="8" t="s">
+      <c r="G182" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="H182" s="9">
-        <v>43885</v>
+      <c r="H182" s="11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="G183" s="9"/>
+      <c r="H183" s="12" t="s">
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -6556,8 +6605,8 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -6567,58 +6616,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>624</v>
+        <v>628</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>626</v>
+        <v>630</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>628</v>
+        <v>632</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6627,10 +6676,10 @@
     </row>
     <row r="9" ht="71.25" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>

--- a/Airwindows 插件备注.xlsx
+++ b/Airwindows 插件备注.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22155" windowHeight="13350" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="22155" windowHeight="13350" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="插件清单" sheetId="2" r:id="rId1"/>
@@ -44,64 +44,67 @@
     <t>Acceleration</t>
   </si>
   <si>
+    <t>动态处理</t>
+  </si>
+  <si>
+    <t>瞬态设计</t>
+  </si>
+  <si>
+    <t>驯化边缘，保留亮度</t>
+  </si>
+  <si>
+    <t>Acceleration is an acceleration limiter that tames edge, leaves brightness.</t>
+  </si>
+  <si>
+    <t>它抑制高频的毛糙，同时保留了未削波时的清晰度，并且包含了一个与反削波算法一起工作的高通滤波器</t>
+  </si>
+  <si>
+    <t>ADClip7</t>
+  </si>
+  <si>
+    <t>限制器</t>
+  </si>
+  <si>
+    <t>峰值控制</t>
+  </si>
+  <si>
+    <t>ADClip7 is the ultimate Airwindows loudness maximizer/ peak control.</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>调制</t>
+  </si>
+  <si>
+    <t>延迟</t>
+  </si>
+  <si>
+    <t>双抽头，短时饱和延迟</t>
+  </si>
+  <si>
+    <t>ADT is a double short delay tap with saturation.</t>
+  </si>
+  <si>
+    <t>Ryusa：ADT = Artificial Double-Tracking，由于该插件只能生成单声道效果，暂时无法取代 Waves Reel ADT</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
     <t>均衡器</t>
   </si>
   <si>
+    <t>亮丽的均衡器，频段为 44.1k，不同采样率会影响不同频段</t>
+  </si>
+  <si>
+    <t>Air is a different bright EQ from any other. Frequency set @ 44.1k, scales for different sample rate.</t>
+  </si>
+  <si>
+    <t>AQuickVoiceClip</t>
+  </si>
+  <si>
     <t>实例（定制化）</t>
-  </si>
-  <si>
-    <t>驯化边缘，保留亮度</t>
-  </si>
-  <si>
-    <t>Acceleration is an acceleration limiter that tames edge, leaves brightness.</t>
-  </si>
-  <si>
-    <t>它抑制高频的毛糙，同时保留了未削波时的清晰度，并且包含了一个与反削波算法一起工作的高通滤波器</t>
-  </si>
-  <si>
-    <t>ADClip7</t>
-  </si>
-  <si>
-    <t>动态处理</t>
-  </si>
-  <si>
-    <t>限制器</t>
-  </si>
-  <si>
-    <t>峰值控制</t>
-  </si>
-  <si>
-    <t>ADClip7 is the ultimate Airwindows loudness maximizer/ peak control.</t>
-  </si>
-  <si>
-    <t>ADT</t>
-  </si>
-  <si>
-    <t>调制</t>
-  </si>
-  <si>
-    <t>延迟</t>
-  </si>
-  <si>
-    <t>双抽头，短时饱和延迟</t>
-  </si>
-  <si>
-    <t>ADT is a double short delay tap with saturation.</t>
-  </si>
-  <si>
-    <t>Ryusa：ADT = Artificial Double-Tracking，由于该插件只能生成单声道效果，暂时无法取代 Waves Reel ADT</t>
-  </si>
-  <si>
-    <t>Air</t>
-  </si>
-  <si>
-    <t>亮丽的均衡器，频段为 44.1k，不同采样率会影响不同频段</t>
-  </si>
-  <si>
-    <t>Air is a different bright EQ from any other. Frequency set @ 44.1k, scales for different sample rate.</t>
-  </si>
-  <si>
-    <t>AQuickVoiceClip</t>
   </si>
   <si>
     <t>柔化削波</t>
@@ -1302,9 +1305,6 @@
     <t>Point</t>
   </si>
   <si>
-    <t>瞬态设计</t>
-  </si>
-  <si>
     <t>爆炸感瞬态设计</t>
   </si>
   <si>
@@ -1947,7 +1947,7 @@
     <t>修改日期</t>
   </si>
   <si>
-    <t>2020 年 03 月 03 日</t>
+    <t>2020 年 03 月 04 日</t>
   </si>
   <si>
     <t>最新插件</t>
@@ -1983,9 +1983,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2017,20 +2017,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2038,15 +2030,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2068,7 +2059,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2083,43 +2074,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2129,7 +2083,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2144,7 +2098,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2165,7 +2165,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2177,7 +2195,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE3F3"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2189,13 +2279,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2213,19 +2309,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2237,115 +2345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDAE3F3"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2359,17 +2359,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2383,17 +2377,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2409,15 +2397,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2448,11 +2427,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2461,153 +2461,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2634,9 +2634,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3103,10 +3100,10 @@
   <sheetPr/>
   <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A183" sqref="A183"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -3173,47 +3170,47 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" ht="28.5" spans="1:7">
       <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:7">
       <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3230,2165 +3227,2165 @@
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" ht="28.5" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" ht="28.5" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:7">
       <c r="A17" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" ht="28.5" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" ht="142.5" spans="1:7">
       <c r="A22" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" ht="28.5" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G24" s="5"/>
     </row>
     <row r="25" ht="28.5" spans="1:7">
       <c r="A25" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" ht="28.5" spans="1:7">
       <c r="A28" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" ht="28.5" spans="1:7">
       <c r="A30" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G32" s="5"/>
     </row>
     <row r="33" ht="28.5" spans="1:7">
       <c r="A33" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G36" s="5"/>
     </row>
     <row r="37" ht="28.5" spans="1:7">
       <c r="A37" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G37" s="5"/>
     </row>
     <row r="38" ht="242.25" spans="1:7">
       <c r="A38" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G39" s="5"/>
     </row>
     <row r="40" ht="28.5" spans="1:7">
       <c r="A40" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G42" s="5"/>
     </row>
     <row r="43" ht="28.5" spans="1:7">
       <c r="A43" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G43" s="5"/>
     </row>
     <row r="44" ht="27" spans="1:7">
       <c r="A44" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" ht="28.5" spans="1:7">
       <c r="A45" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G46" s="5"/>
     </row>
     <row r="47" ht="57" spans="1:7">
       <c r="A47" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G52" s="5"/>
     </row>
     <row r="53" ht="71.25" spans="1:7">
       <c r="A53" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" ht="28.5" spans="1:7">
       <c r="A54" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" ht="28.5" spans="1:7">
       <c r="A57" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" ht="28.5" spans="1:7">
       <c r="A58" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G58" s="5"/>
     </row>
     <row r="59" ht="28.5" spans="1:7">
       <c r="A59" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G61" s="5"/>
     </row>
     <row r="62" ht="28.5" spans="1:7">
       <c r="A62" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="5"/>
       <c r="E63" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G63" s="5"/>
     </row>
     <row r="64" ht="28.5" spans="1:7">
       <c r="A64" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G66" s="5"/>
     </row>
     <row r="67" ht="28.5" spans="1:7">
       <c r="A67" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" ht="28.5" spans="1:7">
       <c r="A68" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="5"/>
       <c r="E68" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G72" s="5"/>
     </row>
     <row r="73" ht="28.5" spans="1:7">
       <c r="A73" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G73" s="5"/>
     </row>
     <row r="74" ht="28.5" spans="1:7">
       <c r="A74" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="5"/>
       <c r="E74" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G74" s="5"/>
     </row>
     <row r="75" ht="28.5" spans="1:7">
       <c r="A75" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G75" s="5"/>
     </row>
     <row r="76" ht="28.5" spans="1:7">
       <c r="A76" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G76" s="5"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="5"/>
       <c r="E79" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" ht="28.5" spans="1:7">
       <c r="A80" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G80" s="5"/>
     </row>
     <row r="81" ht="28.5" spans="1:7">
       <c r="A81" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G81" s="5"/>
     </row>
     <row r="82" ht="28.5" spans="1:7">
       <c r="A82" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G83" s="5"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G84" s="5"/>
     </row>
     <row r="85" ht="28.5" spans="1:7">
       <c r="A85" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="87" ht="28.5" spans="1:7">
       <c r="A87" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G87" s="5"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G88" s="5"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G89" s="5"/>
     </row>
     <row r="90" ht="28.5" spans="1:7">
       <c r="A90" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G90" s="5"/>
     </row>
     <row r="91" ht="28.5" spans="1:7">
       <c r="A91" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G91" s="5"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G92" s="5"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="94" ht="28.5" spans="1:7">
       <c r="A94" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G94" s="5"/>
     </row>
     <row r="95" ht="199.5" spans="1:7">
       <c r="A95" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="96" ht="28.5" spans="1:7">
       <c r="A96" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G96" s="5"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G99" s="5"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G103" s="5"/>
     </row>
     <row r="104" ht="28.5" spans="1:7">
       <c r="A104" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G104" s="5"/>
     </row>
     <row r="105" ht="28.5" spans="1:7">
       <c r="A105" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G105" s="5"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B106" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G106" s="5"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G107" s="5"/>
     </row>
     <row r="108" ht="28.5" spans="1:7">
       <c r="A108" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="110" ht="71.25" spans="1:7">
       <c r="A110" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="111" ht="42.75" spans="1:7">
       <c r="A111" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G113" s="5"/>
     </row>
     <row r="114" ht="28.5" spans="1:7">
       <c r="A114" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="115" ht="28.5" spans="1:7">
       <c r="A115" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G116" s="5"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G117" s="5"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G119" s="5"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G120" s="5"/>
     </row>
     <row r="121" ht="99.75" spans="1:7">
       <c r="A121" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>420</v>
+        <v>10</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5" t="s">
@@ -5406,10 +5403,10 @@
         <v>424</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="6" t="s">
@@ -5425,10 +5422,10 @@
         <v>427</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5" t="s">
@@ -5459,10 +5456,10 @@
         <v>433</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5" t="s">
@@ -5480,13 +5477,13 @@
         <v>437</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5" t="s">
@@ -5514,16 +5511,16 @@
         <v>442</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>440</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>443</v>
@@ -5535,7 +5532,7 @@
         <v>444</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5" t="s">
@@ -5554,10 +5551,10 @@
         <v>447</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>440</v>
@@ -5588,7 +5585,7 @@
         <v>452</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5" t="s">
@@ -5609,10 +5606,10 @@
         <v>456</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5" t="s">
@@ -5628,13 +5625,13 @@
         <v>459</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>460</v>
@@ -5651,10 +5648,10 @@
         <v>463</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5" t="s">
@@ -5683,7 +5680,7 @@
         <v>468</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -5700,10 +5697,10 @@
         <v>471</v>
       </c>
       <c r="B138" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="6" t="s">
@@ -5719,7 +5716,7 @@
         <v>474</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -5736,7 +5733,7 @@
         <v>477</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -5753,7 +5750,7 @@
         <v>480</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="5"/>
@@ -5772,7 +5769,7 @@
         <v>484</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5" t="s">
@@ -5793,7 +5790,7 @@
         <v>488</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5" t="s">
@@ -5812,7 +5809,7 @@
         <v>491</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>492</v>
@@ -5861,10 +5858,10 @@
         <v>500</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5" t="s">
@@ -5882,10 +5879,10 @@
         <v>504</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5" t="s">
@@ -5903,10 +5900,10 @@
         <v>508</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>504</v>
@@ -5937,7 +5934,7 @@
         <v>513</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -5954,10 +5951,10 @@
         <v>516</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="6" t="s">
@@ -5973,10 +5970,10 @@
         <v>519</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="6" t="s">
@@ -5992,7 +5989,7 @@
         <v>522</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>492</v>
@@ -6011,10 +6008,10 @@
         <v>525</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>525</v>
@@ -6034,7 +6031,7 @@
         <v>529</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5" t="s">
@@ -6055,10 +6052,10 @@
         <v>532</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5" t="s">
@@ -6076,10 +6073,10 @@
         <v>536</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5" t="s">
@@ -6095,10 +6092,10 @@
         <v>539</v>
       </c>
       <c r="B159" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="6" t="s">
@@ -6114,10 +6111,10 @@
         <v>542</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5" t="s">
@@ -6133,7 +6130,7 @@
         <v>545</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
@@ -6150,10 +6147,10 @@
         <v>548</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>539</v>
@@ -6171,10 +6168,10 @@
         <v>551</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5" t="s">
@@ -6190,7 +6187,7 @@
         <v>554</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -6207,7 +6204,7 @@
         <v>557</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -6224,10 +6221,10 @@
         <v>560</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>561</v>
@@ -6262,7 +6259,7 @@
         <v>567</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
@@ -6281,10 +6278,10 @@
         <v>571</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5" t="s">
@@ -6302,10 +6299,10 @@
         <v>575</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>576</v>
@@ -6325,7 +6322,7 @@
         <v>580</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
@@ -6342,10 +6339,10 @@
         <v>583</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>576</v>
@@ -6365,10 +6362,10 @@
         <v>587</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>588</v>
@@ -6388,10 +6385,10 @@
         <v>592</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>588</v>
@@ -6411,7 +6408,7 @@
         <v>594</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="5"/>
@@ -6428,10 +6425,10 @@
         <v>597</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>598</v>
@@ -6449,7 +6446,7 @@
         <v>601</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
@@ -6466,10 +6463,10 @@
         <v>604</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5" t="s">
@@ -6485,10 +6482,10 @@
         <v>607</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5" t="s">
@@ -6506,7 +6503,7 @@
         <v>611</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>612</v>
@@ -6525,7 +6522,7 @@
         <v>615</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>616</v>
@@ -6544,10 +6541,10 @@
         <v>619</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1" t="s">
@@ -6559,29 +6556,29 @@
       <c r="G182" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="H182" s="11" t="s">
+      <c r="H182" s="10" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="9" t="s">
+      <c r="A183" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B183" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C183" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D183" s="9"/>
-      <c r="E183" s="9" t="s">
+      <c r="B183" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="F183" s="9" t="s">
+      <c r="F183" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="G183" s="9"/>
-      <c r="H183" s="12" t="s">
+      <c r="G183" s="1"/>
+      <c r="H183" s="11" t="s">
         <v>627</v>
       </c>
     </row>
@@ -6605,7 +6602,7 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -6618,7 +6615,7 @@
       <c r="A1" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>629</v>
       </c>
     </row>
@@ -6626,7 +6623,7 @@
       <c r="A2" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>631</v>
       </c>
     </row>
@@ -6634,7 +6631,7 @@
       <c r="A3" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>633</v>
       </c>
     </row>

--- a/Airwindows 插件备注.xlsx
+++ b/Airwindows 插件备注.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22155" windowHeight="13350" tabRatio="500"/>
+    <workbookView windowWidth="22155" windowHeight="13350" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="插件清单" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="647">
   <si>
     <t>插件</t>
   </si>
@@ -1932,6 +1932,18 @@
     <t>2020/3/1</t>
   </si>
   <si>
+    <t>Luxor</t>
+  </si>
+  <si>
+    <t>电吉他效果器</t>
+  </si>
+  <si>
+    <t>Manley 风格，类电吉他放大模拟</t>
+  </si>
+  <si>
+    <t>Luxor is a re-release of another old Character plugin.</t>
+  </si>
+  <si>
     <t>项目</t>
   </si>
   <si>
@@ -1941,13 +1953,13 @@
     <t>注释版本</t>
   </si>
   <si>
-    <t>1.7</t>
+    <t>1.8</t>
   </si>
   <si>
     <t>修改日期</t>
   </si>
   <si>
-    <t>2020 年 03 月 04 日</t>
+    <t>2020 年 03 月 20 日</t>
   </si>
   <si>
     <t>最新插件</t>
@@ -2017,14 +2029,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2036,22 +2109,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2066,24 +2125,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2097,54 +2154,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2165,19 +2177,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFDAE3F3"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2189,127 +2195,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDAE3F3"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2327,7 +2219,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2339,13 +2231,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2362,26 +2374,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2401,17 +2425,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2428,31 +2455,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2461,149 +2473,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2810,9 +2822,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H183" totalsRowShown="0">
-  <autoFilter ref="A1:H183"/>
-  <sortState ref="A1:H183">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H184" totalsRowShown="0">
+  <autoFilter ref="A1:H184"/>
+  <sortState ref="A1:H184">
     <sortCondition ref="A2:A184"/>
   </sortState>
   <tableColumns count="8">
@@ -3098,12 +3110,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -6581,6 +6593,26 @@
       <c r="H183" s="11" t="s">
         <v>627</v>
       </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6602,8 +6634,8 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -6613,58 +6645,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6673,10 +6705,10 @@
     </row>
     <row r="9" ht="71.25" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
